--- a/certification_results/Оценка_DE_сам.оценка+TL оценка (1).xlsx
+++ b/certification_results/Оценка_DE_сам.оценка+TL оценка (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51EF2BE-90F5-4A66-97D6-3B6F7019FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A33673-A376-446D-B0F1-86D0E6E72117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,14 +897,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="34.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="16.5546875" style="32" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="32" customWidth="1"/>
